--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liam1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E09700-E7DA-4EA2-82D7-155938DEF2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="377">
   <si>
     <t>Q</t>
   </si>
@@ -142,9 +151,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>To address the question regarding the repair methods involved in direct regeneration for spent lithium-ion cathodes in the context of battery recycling, the following methods are commonly employed:
 1. **Direct Solid-State Calcination**:
@@ -152,33 +162,35 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>, LiFePO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>, or NCM at specific temperatures in a solid-state environment.
    - It effectively repairs the crystal structure and enhances electrochemical properties, making it suitable for single-component cathode materials.
@@ -187,17 +199,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>⁺</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>-enriched solution in an autoclave.
    - This method is known for its ability to significantly improve the kinetics of lithium integration and the quality of the regenerated cathode material.
@@ -205,17 +218,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>⁺</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Molten-Salt Relithiation**:
    - This method utilizes a lithium-rich molten salt environment to supplement lithium, facilitating the direct regeneration of spent cathode materials.
@@ -1127,9 +1141,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>In the realm of lithium-ion battery (LIB) recycling, particularly focusing on separator and electrolyte recovery, several innovative materials and technologies are being explored. These advancements aim to enhance the efficiency, sustainability, and economic viability of recycling processes. Here are some notable developments:
 ### 1. **Advanced Separator Materials**
@@ -1140,17 +1155,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> to dissolve and extract electrolyte solvents and lithium salts from spent batteries. This method is particularly noted for its efficiency and environmental benefits as it avoids the use of additional harmful solvents.
 - **Ionic Liquids**: Ionic liquids are being investigated as green solvents for the dissolution and recovery of electrolyte components due to their non-volatile and highly stable nature.
@@ -1221,9 +1237,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>The effectiveness of current recycling technologies in restoring the original material properties of lithium-ion batteries (LIBs) varies depending on the specific recycling method employed. Here's a detailed look at how these technologies address material degradation and their efficacy in restoring original properties:
 ### 1. **Pyrometallurgy**
@@ -1245,17 +1262,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> processing are explored to reduce thermal and chemical stress on materials during recycling.
 ### Conclusion
@@ -1320,9 +1338,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Nanotechnology offers innovative solutions for the direct regeneration of spent lithium-ion battery (LIB) materials, enhancing the performance and sustainability of recycling processes. Here are some of the latest nanotechnology applications in this area:
 ### 1. **Nano-Structured Cathodes**
@@ -1330,65 +1349,69 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>, LiMn</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>, or LiFePO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> can be regenerated with better structural integrity and higher surface area, which enhances both the rate capability and cycle stability. These properties are critical for the efficient operation of batteries with recycled materials.
 ### 2. **Nanoparticle Catalysts**
@@ -1396,17 +1419,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>) or graphene oxide can be added to the recycling process to facilitate the breakdown of residual polymers and binders at lower temperatures, improving the purity and recovery rate of active materials.
 ### 3. **Conductive Nanocoatings**
@@ -1481,9 +1505,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Thermal treatments play a significant role in recycling processes, especially for lithium-ion batteries (LIBs), as they can profoundly affect the structure, chemistry, and ultimately, the electrochemical properties of the recovered materials. Here's a detailed look at how thermal treatments impact these properties:
 ### 1. **Phase Transformations**
@@ -1493,17 +1518,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>) can help recover the layered structure, enhancing lithium mobility and capacity retention.
 ### 3. **Removal of Contaminants**
@@ -1513,33 +1539,35 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>CO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₃</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>) during the thermal process can help reintegrate lithium into the cathode structure, improving the stoichiometry and enhancing the capacity and longevity of the recycled material.
 ### 5. **Surface Modifications**
@@ -1725,42 +1753,45 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>In the hydrometallurgical recycling of lithium-ion batteries, several types of acids are commonly used in the leaching process to dissolve metals from spent battery cathodes. These include:
 1. **Sulfuric Acid (H</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>SO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**: It's widely used due to its effectiveness in leaching a variety of metals and its relatively low cost. It's particularly effective for leaching cobalt, nickel, and manganese.
 2. **Hydrochloric Acid (HCl)**: This acid is also frequently used for leaching metals like lithium, cobalt, and nickel from spent battery materials. It is effective but can sometimes lead to the formation of chlorine gas under certain conditions, which requires careful handling and ventilation.
@@ -1768,50 +1799,53 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₃</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**: Used less commonly than sulfuric and hydrochloric acids, nitric acid can effectively dissolve metal oxides but is more aggressive and can lead to the formation of toxic nitrogen oxides.
 4. **Phosphoric Acid (H</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₃</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>PO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**: Sometimes used in specific recycling applications, particularly when a less corrosive acid is needed, though it is not as commonly employed as the other acids for bulk metal recovery.
 Each of these acids can be used under different conditions depending on the specific metals targeted for recovery and the subsequent processing steps planned for refining and purifying the extracted materials. The choice of acid can influence the efficiency, cost, and environmental impact of the recycling process.</t>
@@ -1820,42 +1854,45 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>In the hydrometallurgical recycling process for lithium-ion batteries, leaching is a crucial step where acids are used to dissolve metals from the cathode materials. Some specific acids commonly used in this process are:
 1. **Sulfuric Acid (H</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>SO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**:  
    - One of the most widely used acids due to its strong leaching power, particularly effective for dissolving metals like lithium (Li), nickel (Ni), cobalt (Co), and manganese (Mn).
@@ -1866,17 +1903,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₃</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**:  
    - Strong oxidizing acid that can break down the cathode materials but is less commonly used due to its aggressive nature and the formation of potentially harmful nitrogen oxides (NOx) during the process.
@@ -1884,49 +1922,52 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₆</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>H</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₈</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₇</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**:  
    - A less common but environmentally friendly alternative used in green leaching processes. Citric acid is biodegradable and can recover metals in a less hazardous way compared to stronger mineral acids.
@@ -1934,49 +1975,52 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>H</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**:  
    - Sometimes used as a selective leaching agent for metals like cobalt. It can also precipitate dissolved metals in some cases.
@@ -1984,33 +2028,35 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₃</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>PO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**:  
    - Occasionally used in the leaching of metals, especially when dealing with specific battery chemistries, though less common than sulfuric or hydrochloric acids.
@@ -2019,98 +2065,104 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>SO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> + H</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)**: A common combination where sulfuric acid serves as the leaching agent and hydrogen peroxide acts as a reducing agent to enhance metal dissolution, particularly for cobalt, nickel, and lithium recovery.
 - **Hydrochloric Acid + Hydrogen Peroxide (HCl + H</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Tahoma"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)**: Another frequently used combination, often used for recycling cathode materials rich in cobalt and nickel.
 These acids are selected based on factors like the battery chemistry, the target metals for recovery, and environmental considerations of the recycling process.
@@ -2179,14 +2231,12 @@
 In conclusion, optimizing the concentration of leaching agents is essential for maximizing metal recovery efficiency in lithium-ion battery recycling. Researchers continue to explore advanced methods and mechanisms to enhance the effectiveness of metal recovery processes.</t>
   </si>
   <si>
-    <t>What are the optimal conditions (temperature, pH, time) for maximizing recovery rates of lithium, cobalt, and nickel using hydrometallurgical methods?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Optimizing the recovery rates of lithium, cobalt, and nickel from spent lithium-ion batteries using hydrometallurgical methods involves careful control of several variables, including temperature, pH, and leaching time. Here’s a general overview of the optimal conditions for each:
 ### 1. **Lithium**
@@ -2199,33 +2249,35 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>) as an oxidizing agent to improve leach efficiency.
 - **pH**: Maintaining a low pH (around 1 to 2) is critical for effective cobalt leaching.
@@ -2633,9 +2685,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Recovering electrolytes from spent lithium-ion batteries using hydrometallurgical methods is a crucial aspect of recycling, as it helps in reducing waste and recovering valuable lithium salts used in the electrolytes. Here's how current hydrometallurgical methods address this challenge:
 ### 1. **Extraction of Electrolyte Solvents**
@@ -2644,33 +2697,35 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Extraction:** This method is particularly effective for extracting organic solvents from the electrolyte. Supercritical carbon dioxide acts as a solvent to dissolve organic compounds at high pressure and temperature conditions. After the extraction, reducing the pressure allows the CO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> to evaporate, leaving behind the solvent.
 ### 2. **Recovery of Lithium Salts**
@@ -3959,9 +4014,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>The critical factors in the selection of reducing agents in pyrometallurgical processes for lithium-ion batteries are essential for optimizing efficiency, cost, and environmental impact. Here are the key considerations:
 ### 1. **Thermodynamic Properties**
@@ -3975,34 +4031,38 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> emissions, which need to be managed.
    - **By-products**: Evaluate the environmental hazards posed by by-products. For instance, sulfur-containing reducing agents may produce harmful SO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> emissions.
 ### 4. **Economic Factors**
@@ -4023,82 +4083,92 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>O</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> has proven effective with high recovery rates for lithium (99%), nickel (93%), cobalt (92%), and manganese (90%).
 - **LCO with Inorganic Acids**: H</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>SO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>₄</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> combined with NaHSO</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>₃</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> offers high recovery rates for lithium (97%), nickel (96%), cobalt (92%), and manganese (88%).
 These examples demonstrate the application of reducing agents in both organic and inorganic contexts, highlighting the importance of selecting agents based on their effectiveness, economic viability, and environmental impact.
@@ -4199,9 +4269,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Achieving high recovery rates of lithium during pyrometallurgical processing presents several key challenges:
 1. **Volatilization of Lithium:**
@@ -4211,17 +4282,19 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>, NMC, and LFP), complicates the optimization of process parameters.
 3. **Impurities:**
@@ -4520,9 +4593,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Research aimed at lowering the operational costs of pyrometallurgical recycling processes for lithium-ion batteries focuses on several key areas to enhance efficiency, reduce energy consumption, and minimize environmental impacts. Here’s an overview of the main research directions:
 ### 1. **Energy Efficiency Improvements**
@@ -4543,17 +4617,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria Math"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>) for industrial use, thus turning a waste product into a revenue stream.
 ### 6. **Enhanced Metal Recovery Techniques**
@@ -7481,38 +7556,106 @@
 3. **Material Recovery**: Implementing automated systems for identification, disassembly, and separation of battery components to streamline recycling operations.
 By addressing these challenges and embracing these breakthroughs, the integration of URM with existing infrastructures can lead to more efficient and sustainable battery recycling practices.</t>
   </si>
+  <si>
+    <t>What are the optimal conditions (temperature, pH, time) for maximizing recovery rates of lithium, cobalt, and nickel using hydrometallurgical methods?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Recycling Methods</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct Recycling</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultrafast Repair Method</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upcycling</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Properties and Modifications</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrometallurgical Recycling</t>
+  </si>
+  <si>
+    <t>Pyrometallurgical Recycling</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -7520,7 +7663,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -7548,7 +7691,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -7562,64 +7711,64 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -7809,1329 +7958,1611 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="78" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="102.71"/>
-    <col customWidth="1" min="2" max="2" width="80.29"/>
-    <col customWidth="1" min="3" max="3" width="68.14"/>
-    <col customWidth="1" min="4" max="4" width="33.14"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="102.73046875" customWidth="1"/>
+    <col min="2" max="2" width="31.73046875" customWidth="1"/>
+    <col min="3" max="3" width="80.265625" customWidth="1"/>
+    <col min="4" max="4" width="68.1328125" customWidth="1"/>
+    <col min="5" max="5" width="33.1328125" customWidth="1"/>
+    <col min="6" max="27" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="E25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="B26" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="6" t="s">
+    <row r="27" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="B27" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="8" t="s">
+    <row r="28" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="B28" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="6" t="s">
+    <row r="29" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="B29" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="8" t="s">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="B30" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="7" t="s">
+    <row r="31" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="B31" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="7" t="s">
+    <row r="32" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="B32" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="6" t="s">
+    <row r="33" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="B33" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="8" t="s">
+    <row r="34" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="B34" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="8" t="s">
+    <row r="35" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="B35" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="6" t="s">
+    <row r="36" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="B36" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="8" t="s">
+    <row r="37" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="B37" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="8" t="s">
+    <row r="38" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="B38" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="6" t="s">
+    <row r="39" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="B39" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="6" t="s">
+    <row r="40" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="B40" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="40" ht="19.5" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="8" t="s">
+    <row r="41" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="B41" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="41" ht="19.5" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="6" t="s">
+    <row r="42" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="B42" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="42" ht="19.5" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" s="8" t="s">
+    <row r="43" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="B43" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="43" ht="19.5" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="6" t="s">
+    <row r="44" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="B44" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="44" ht="19.5" customHeight="1">
-      <c r="A44" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="8" t="s">
+    <row r="45" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="B45" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="45" ht="19.5" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="8" t="s">
+    <row r="46" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="B46" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="46" ht="19.5" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="7" t="s">
+    <row r="47" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="B47" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="47" ht="19.5" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="8" t="s">
+    <row r="48" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="B48" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="48" ht="19.5" customHeight="1">
-      <c r="A48" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="8" t="s">
+    <row r="49" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="B49" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="49" ht="19.5" customHeight="1">
-      <c r="A49" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="6" t="s">
+    <row r="50" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="B50" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="50" ht="19.5" customHeight="1">
-      <c r="A50" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="8" t="s">
+    <row r="51" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="B51" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="51" ht="19.5" customHeight="1">
-      <c r="A51" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="6" t="s">
+    <row r="52" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="B52" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="52" ht="19.5" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="8" t="s">
+    <row r="53" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="B53" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="53" ht="19.5" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="6" t="s">
+    <row r="54" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="B54" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="54" ht="19.5" customHeight="1">
-      <c r="A54" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="8" t="s">
+    <row r="55" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="B55" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="55" ht="19.5" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D55" s="8" t="s">
+    <row r="56" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A56" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="B56" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="56" ht="19.5" customHeight="1">
-      <c r="A56" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" s="8" t="s">
+    <row r="57" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="B57" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="57" ht="19.5" customHeight="1">
-      <c r="A57" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D57" s="6" t="s">
+    <row r="58" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="B58" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="58" ht="19.5" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D58" s="8" t="s">
+    <row r="59" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A59" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="B59" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="59" ht="19.5" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D59" s="8" t="s">
+    <row r="60" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="B60" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>236</v>
+      </c>
     </row>
-    <row r="60" ht="19.5" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" s="6" t="s">
+    <row r="61" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="B61" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="61" ht="19.5" customHeight="1">
-      <c r="A61" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" s="8" t="s">
+    <row r="62" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A62" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="B62" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="62" ht="19.5" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D62" s="8" t="s">
+    <row r="63" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A63" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B63" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="63" ht="19.5" customHeight="1">
-      <c r="A63" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D63" s="8" t="s">
+    <row r="64" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="B64" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="64" ht="19.5" customHeight="1">
-      <c r="A64" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" s="7" t="s">
+    <row r="65" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A65" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="B65" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="65" ht="19.5" customHeight="1">
-      <c r="A65" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" s="6" t="s">
+    <row r="66" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A66" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="B66" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
-    <row r="66" ht="19.5" customHeight="1">
-      <c r="A66" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" s="8" t="s">
+    <row r="67" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="B67" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="67" ht="19.5" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D67" s="8" t="s">
+    <row r="68" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A68" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="B68" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>268</v>
+      </c>
     </row>
-    <row r="68" ht="19.5" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D68" s="6" t="s">
+    <row r="69" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A69" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="B69" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="69" ht="19.5" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" s="8" t="s">
+    <row r="70" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A70" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="B70" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="70" ht="19.5" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="8" t="s">
+    <row r="71" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A71" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="B71" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="71" ht="19.5" customHeight="1">
-      <c r="A71" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D71" s="7" t="s">
+    <row r="72" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A72" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="B72" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="72" ht="19.5" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D72" s="7" t="s">
+    <row r="73" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A73" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="B73" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="73" ht="19.5" customHeight="1">
-      <c r="A73" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D73" s="6" t="s">
+    <row r="74" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A74" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="B74" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="74" ht="19.5" customHeight="1">
-      <c r="A74" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D74" s="8" t="s">
+    <row r="75" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A75" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="B75" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="75" ht="19.5" customHeight="1">
-      <c r="A75" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D75" s="6" t="s">
+    <row r="76" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A76" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="B76" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="76" ht="19.5" customHeight="1">
-      <c r="A76" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D76" s="7" t="s">
+    <row r="77" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A77" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="B77" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="6" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="77" ht="19.5" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="8" t="s">
+    <row r="78" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A78" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="B78" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="78" ht="19.5" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D78" s="7" t="s">
+    <row r="79" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A79" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="B79" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="79" ht="19.5" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D79" s="8" t="s">
+    <row r="80" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A80" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="B80" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="80" ht="19.5" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D80" s="8" t="s">
+    <row r="81" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A81" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="B81" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="81" ht="19.5" customHeight="1">
-      <c r="A81" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D81" s="6" t="s">
+    <row r="82" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A82" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="B82" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="82" ht="19.5" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D82" s="7" t="s">
+    <row r="83" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A83" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="B83" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>327</v>
+      </c>
     </row>
-    <row r="83" ht="19.5" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D83" s="6" t="s">
+    <row r="84" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A84" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="B84" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>331</v>
+      </c>
     </row>
-    <row r="84" ht="19.5" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D84" s="8" t="s">
+    <row r="85" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A85" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="B85" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>335</v>
+      </c>
     </row>
-    <row r="85" ht="19.5" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D85" s="8" t="s">
+    <row r="86" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A86" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="B86" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>339</v>
+      </c>
     </row>
-    <row r="86" ht="19.5" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D86" s="8" t="s">
+    <row r="87" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A87" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="B87" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="87" ht="19.5" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D87" s="6" t="s">
+    <row r="88" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A88" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="B88" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>347</v>
+      </c>
     </row>
-    <row r="88" ht="19.5" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D88" s="8" t="s">
+    <row r="89" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A89" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="B89" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>351</v>
+      </c>
     </row>
-    <row r="89" ht="19.5" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D89" s="7" t="s">
+    <row r="90" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A90" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="B90" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="90" ht="19.5" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D90" s="6" t="s">
+    <row r="91" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A91" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="B91" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="91" ht="19.5" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D91" s="8" t="s">
+    <row r="92" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A92" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="B92" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="92" ht="19.5" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D92" s="6" t="s">
+    <row r="93" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A93" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="B93" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="93" ht="19.5" customHeight="1">
-      <c r="A93" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="94" ht="19.5" customHeight="1"/>
-    <row r="95" ht="19.5" customHeight="1"/>
-    <row r="96" ht="19.5" customHeight="1"/>
+    <row r="94" spans="1:5" ht="19.5" customHeight="1"/>
+    <row r="95" spans="1:5" ht="19.5" customHeight="1"/>
+    <row r="96" spans="1:5" ht="19.5" customHeight="1"/>
     <row r="97" ht="19.5" customHeight="1"/>
     <row r="98" ht="19.5" customHeight="1"/>
     <row r="99" ht="19.5" customHeight="1"/>
@@ -10037,9 +10468,8 @@
     <row r="999" ht="19.5" customHeight="1"/>
     <row r="1000" ht="19.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>